--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-14.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Kishoreganj/Kishoreganj/Package-14.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office Work\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\PM_16_03_2019\Progress Monitoring Kishoregonj\Kishoreganj\Kishoreganj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706DA96-CD82-4F9A-9875-A2B4BD9CB44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Embankment" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Rate_Embankment" sheetId="2" r:id="rId4"/>
     <sheet name="Rate_Reg" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="318">
   <si>
     <t>Sl No</t>
   </si>
@@ -176,9 +175,6 @@
     <t>40-220-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Labour charge </t>
-  </si>
-  <si>
     <t>76-170</t>
   </si>
   <si>
@@ -911,13 +907,94 @@
   </si>
   <si>
     <t>without DV Channel</t>
+  </si>
+  <si>
+    <t>Labour Charge for fixinig BM Pillar</t>
+  </si>
+  <si>
+    <t>Supplying Bamboo Pegs</t>
+  </si>
+  <si>
+    <t>Supplyimng Synthetic Bags</t>
+  </si>
+  <si>
+    <t>Supplying Sheet Pile</t>
+  </si>
+  <si>
+    <t>Epoxy Paint</t>
+  </si>
+  <si>
+    <t>Sand filter: FM 1.00 to 1.5</t>
+  </si>
+  <si>
+    <t>Cork Sheet in Expansion Joint</t>
+  </si>
+  <si>
+    <t>Filling Expansion Joint by Asphalt</t>
+  </si>
+  <si>
+    <t>CC Block 40x40x20</t>
+  </si>
+  <si>
+    <t>Labour charge  laying cc blockbeyond 200m</t>
+  </si>
+  <si>
+    <t>Labour charge  laying cc block winthin 200m</t>
+  </si>
+  <si>
+    <t>Geotextile</t>
+  </si>
+  <si>
+    <t>40-600-40</t>
+  </si>
+  <si>
+    <t>sqm,</t>
+  </si>
+  <si>
+    <t>Supply BM Pillars</t>
+  </si>
+  <si>
+    <t>Fixing BM Pillars</t>
+  </si>
+  <si>
+    <t>Biological Protection</t>
+  </si>
+  <si>
+    <t>Bamboo Profile</t>
+  </si>
+  <si>
+    <t>Supplying Barack Bamboo Pibns</t>
+  </si>
+  <si>
+    <t>Labour Charge for Driving Bamboo Pins</t>
+  </si>
+  <si>
+    <t>Single Layer Tarjah</t>
+  </si>
+  <si>
+    <t>Earth Work By Carried Earth</t>
+  </si>
+  <si>
+    <t>Extra Rate for additional  Lift</t>
+  </si>
+  <si>
+    <t>Earth work by Manual Labour</t>
+  </si>
+  <si>
+    <t>Earthwork by Excavartor</t>
+  </si>
+  <si>
+    <t>Royalty for Earth</t>
+  </si>
+  <si>
+    <t>Fine Dressing and Close Turfing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1025,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -958,7 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1071,42 +1155,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,16 +1179,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,23 +1309,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1273,23 +1344,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1465,307 +1519,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="17">
+        <v>493.06900000000002</v>
+      </c>
+      <c r="F3" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4">
-        <v>493.06900000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="17">
         <v>38.654000000000003</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="28">
         <v>18</v>
       </c>
       <c r="H4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>199200</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17">
+        <v>185.381</v>
+      </c>
+      <c r="F6" s="17">
+        <v>355</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="17">
+        <v>123.002</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3511</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="17">
+        <v>54.670999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2952</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="E9" s="17">
+        <v>281.15699999999998</v>
+      </c>
+      <c r="F9" s="17">
+        <v>6183</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>14</v>
       </c>
-      <c r="E5" s="4">
-        <v>3.4710000000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>202800</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="B10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>185.381</v>
-      </c>
-      <c r="F6" s="4">
-        <v>339</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4">
-        <v>123.002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1501</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>54.670999999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2251.5</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="E10" s="17">
+        <v>332.45100000000002</v>
+      </c>
+      <c r="F10" s="20">
+        <v>74464.62</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>15</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>150.18799999999999</v>
+      </c>
+      <c r="F11" s="20">
+        <v>55998.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="17">
+        <v>34.886000000000003</v>
+      </c>
+      <c r="F12" s="17">
+        <v>22399.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>17</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17">
+        <v>119.899</v>
+      </c>
+      <c r="F13" s="17">
+        <v>55998.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="4">
-        <v>281.15699999999998</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C14" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
-        <v>332.45100000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <v>77941.09</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4">
-        <v>150.18799999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>58455.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="4">
-        <v>34.886000000000003</v>
-      </c>
-      <c r="F12" s="4">
-        <v>23382.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <v>119.899</v>
-      </c>
-      <c r="F13" s="4">
-        <v>58455.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E14" s="17">
         <v>9.5609999999999999</v>
       </c>
-      <c r="F14" s="4">
-        <v>116911.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="F14" s="17">
+        <v>111996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="17">
         <v>19.265999999999998</v>
       </c>
-      <c r="F15" s="4">
-        <v>257077.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="17">
+        <v>195560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="2">
         <f>SUMPRODUCT(E3:E15,F3:F15)</f>
-        <v>50007553.768850006</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+        <v>48598621.000050001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="2">
         <f>F16/100000</f>
-        <v>500.07553768850005</v>
+        <v>485.98621000050002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F25">
+  <sortState ref="A3:F25">
     <sortCondition ref="A3:A25"/>
   </sortState>
   <mergeCells count="5">
@@ -1781,146 +1861,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B94A33C-C356-48D7-904C-C88CC578FBD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="29">
+        <v>107.75700000000001</v>
+      </c>
+      <c r="F3" s="17">
+        <v>385.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>22</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="29">
+        <v>143.41800000000001</v>
+      </c>
+      <c r="F4" s="17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>23</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>107.75700000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1249.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>22</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>143.41800000000001</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="29">
         <v>512.06899999999996</v>
       </c>
-      <c r="F5" s="4">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="F5" s="17">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>24</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="29">
         <v>442.20600000000002</v>
       </c>
-      <c r="F6" s="4">
-        <v>26444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="F6" s="17">
+        <v>26326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="29">
         <v>1493.9380000000001</v>
       </c>
-      <c r="F7" s="4">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>81</v>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -1930,14 +2010,14 @@
         <v>126.901</v>
       </c>
       <c r="F8" s="4">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2712.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="4"/>
@@ -1948,13 +2028,13 @@
         <v>917.14599999999996</v>
       </c>
       <c r="F9" s="4">
-        <v>426.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>364.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="25" t="s">
-        <v>90</v>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
@@ -1964,28 +2044,28 @@
         <v>1620.357</v>
       </c>
       <c r="F10" s="2">
-        <v>426.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="24">
+        <v>364.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="10">
         <f>SUMPRODUCT(E3:E10,F3:F10)</f>
-        <v>16275328.816679999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F12" s="24">
+        <v>13396079.916620001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10">
         <f>F11/100000</f>
-        <v>162.75328816679999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>133.96079916620002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="24">
+        <v>158</v>
+      </c>
+      <c r="F13" s="10">
         <f>(SUMPRODUCT(E6:E7,F6:F7)/100000)</f>
-        <v>142.33390064</v>
+        <v>119.70181516000001</v>
       </c>
     </row>
   </sheetData>
@@ -2002,1140 +2082,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="F1" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="17">
         <v>21.898</v>
       </c>
-      <c r="F3" s="4">
-        <v>3213.6</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="F3" s="17">
+        <v>5540</v>
+      </c>
+      <c r="G3" s="12">
         <f>E3*F3</f>
-        <v>70371.412799999991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+        <v>121314.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="17">
         <v>1014.741</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="17">
         <v>4</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G47" si="0">E4*F4</f>
         <v>4058.9639999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="4">
+      <c r="C5" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="17">
         <v>37.286999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="17">
         <v>4</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>149.148</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="17">
         <v>12.016</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>160</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>1922.56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="17">
         <v>2.2589999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <v>160</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>361.44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>113.717</v>
       </c>
-      <c r="F8" s="2">
-        <v>796.31</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="F8" s="20">
+        <v>793.05</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>90553.984269999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+        <v>90183.26685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <v>1008.603</v>
       </c>
-      <c r="F9" s="4">
-        <v>262.5</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="F9" s="17">
+        <v>298</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>264758.28749999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+        <v>300563.69399999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
+        <v>194.233</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5233.88</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>1016592.21404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>54.006</v>
+      </c>
+      <c r="F11" s="17">
+        <v>19431</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>1049390.5859999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <v>750.50099999999998</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1226.97</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>920842.21196999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17">
+        <v>551.24099999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3239.27</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>1785618.43407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17">
+        <v>125491.94500000001</v>
+      </c>
+      <c r="F14" s="17">
+        <v>24.19</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>3035650.1495500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21">
+        <v>64.757999999999996</v>
+      </c>
+      <c r="F15" s="21">
+        <v>43.52</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>2818.2681600000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17">
+        <v>204.84399999999999</v>
+      </c>
+      <c r="F16" s="24">
+        <v>685.44</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>140408.27136000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1029.837</v>
+      </c>
+      <c r="F17" s="17">
+        <v>182.7</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>188151.2199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17">
+        <v>374.88299999999998</v>
+      </c>
+      <c r="F18" s="17">
+        <v>57</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>21368.330999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="F19" s="17">
+        <v>431.7</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>3250.2692999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
-        <v>194.233</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5208.25</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="E20" s="20">
+        <v>3042.9050000000002</v>
+      </c>
+      <c r="F20" s="20">
+        <v>187.78</v>
+      </c>
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
-        <v>1011614.02225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
+        <v>571396.70090000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
-        <v>54.006</v>
-      </c>
-      <c r="F11" s="4">
-        <v>12100</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="E21" s="20">
+        <v>3302.3049999999998</v>
+      </c>
+      <c r="F21" s="20">
+        <v>187.78</v>
+      </c>
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>653472.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+        <v>620106.83289999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E22" s="20">
+        <v>620.41099999999994</v>
+      </c>
+      <c r="F22" s="20">
+        <v>601.23</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>373009.70552999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4">
-        <v>750.50099999999998</v>
-      </c>
-      <c r="F12" s="4">
-        <v>340.67</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="0"/>
-        <v>255673.17567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <v>551.24099999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>750.94</v>
-      </c>
-      <c r="G13" s="26">
-        <f t="shared" si="0"/>
-        <v>413948.91654000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4">
-        <v>125491.94500000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>17.43</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" si="0"/>
-        <v>2187324.6013500001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4">
-        <v>64.757999999999996</v>
-      </c>
-      <c r="F15" s="4">
-        <v>61.88</v>
-      </c>
-      <c r="G15" s="26">
-        <f t="shared" si="0"/>
-        <v>4007.2250399999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4">
-        <v>204.84399999999999</v>
-      </c>
-      <c r="F16" s="20">
-        <v>495.04</v>
-      </c>
-      <c r="G16" s="26">
-        <f t="shared" si="0"/>
-        <v>101405.97376000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1029.837</v>
-      </c>
-      <c r="F17" s="4">
-        <v>134.68</v>
-      </c>
-      <c r="G17" s="26">
-        <f t="shared" si="0"/>
-        <v>138698.44716000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4">
-        <v>374.88299999999998</v>
-      </c>
-      <c r="F18" s="4">
-        <v>21.84</v>
-      </c>
-      <c r="G18" s="26">
-        <f t="shared" si="0"/>
-        <v>8187.4447199999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4">
-        <v>7.5289999999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <v>351.4</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="0"/>
-        <v>2645.6905999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3042.9050000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>50.61</v>
-      </c>
-      <c r="G20" s="26">
-        <f t="shared" si="0"/>
-        <v>154001.42205000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3302.3049999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>50.61</v>
-      </c>
-      <c r="G21" s="26">
-        <f t="shared" si="0"/>
-        <v>167129.65604999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2">
-        <v>620.41099999999994</v>
-      </c>
-      <c r="F22" s="2">
-        <v>160.08000000000001</v>
-      </c>
-      <c r="G22" s="26">
-        <f t="shared" si="0"/>
-        <v>99315.392879999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="E23" s="20">
         <v>978.95600000000002</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="17">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>8859.5518000000011</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="17">
         <v>6.827</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="25">
         <v>28547.15</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="12">
         <f t="shared" si="0"/>
         <v>194891.39305000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+    <row r="25" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17">
+        <v>7834.1220000000003</v>
+      </c>
+      <c r="F25" s="17">
+        <v>62.36</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
+        <v>488535.84792000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4">
-        <v>7834.1220000000003</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43.91</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="E26" s="17">
+        <v>7497.5079999999998</v>
+      </c>
+      <c r="F26" s="17">
+        <v>3.99</v>
+      </c>
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>343996.29702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>29915.056919999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="17">
+        <v>651.726</v>
+      </c>
+      <c r="F27" s="17">
+        <v>867.43</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>565326.68417999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="17">
+        <v>657.846</v>
+      </c>
+      <c r="F28" s="17">
+        <v>123.55</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="0"/>
+        <v>81276.873299999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="17">
+        <v>536.16300000000001</v>
+      </c>
+      <c r="F29" s="17">
+        <v>173.61</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="0"/>
+        <v>93083.258430000016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17">
+        <v>84.908000000000001</v>
+      </c>
+      <c r="F30" s="17">
+        <v>36711.760000000002</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>3117122.1180800004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="17">
+        <v>70.566000000000003</v>
+      </c>
+      <c r="F31" s="17">
+        <v>31.15</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="0"/>
+        <v>2198.1309000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="20">
+        <v>492.06599999999997</v>
+      </c>
+      <c r="F32" s="20">
+        <v>23.05</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="0"/>
+        <v>11342.121299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="20">
+        <v>128.309</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1926</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="0"/>
+        <v>247123.13399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10008.221</v>
+      </c>
+      <c r="F34" s="17">
+        <v>396.09</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="0"/>
+        <v>3964156.2558899997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="17">
+        <v>254.136</v>
+      </c>
+      <c r="F35" s="17">
+        <v>13.42</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="0"/>
+        <v>3410.5051199999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7497.5079999999998</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="G26" s="26">
-        <f t="shared" si="0"/>
-        <v>10271.58596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4">
-        <v>651.726</v>
-      </c>
-      <c r="F27" s="4">
-        <v>562.84</v>
-      </c>
-      <c r="G27" s="26">
-        <f t="shared" si="0"/>
-        <v>366817.46184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4">
-        <v>657.846</v>
-      </c>
-      <c r="F28" s="4">
-        <v>90.2</v>
-      </c>
-      <c r="G28" s="26">
-        <f t="shared" si="0"/>
-        <v>59337.709200000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4">
-        <v>536.16300000000001</v>
-      </c>
-      <c r="F29" s="4">
-        <v>164.42</v>
-      </c>
-      <c r="G29" s="26">
-        <f t="shared" si="0"/>
-        <v>88155.920459999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="4">
-        <v>84.908000000000001</v>
-      </c>
-      <c r="F30" s="4">
-        <v>25887.52</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="0"/>
-        <v>2198057.5481600002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="4">
-        <v>70.566000000000003</v>
-      </c>
-      <c r="F31" s="4">
-        <v>34.78</v>
-      </c>
-      <c r="G31" s="26">
-        <f t="shared" si="0"/>
-        <v>2454.28548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="2">
-        <v>492.06599999999997</v>
-      </c>
-      <c r="F32" s="2">
-        <v>14.29</v>
-      </c>
-      <c r="G32" s="26">
-        <f t="shared" si="0"/>
-        <v>7031.6231399999988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2">
-        <v>128.309</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2512</v>
-      </c>
-      <c r="G33" s="26">
-        <f t="shared" si="0"/>
-        <v>322312.20799999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10008.221</v>
-      </c>
-      <c r="F34" s="4">
-        <v>274.68</v>
-      </c>
-      <c r="G34" s="26">
-        <f t="shared" si="0"/>
-        <v>2749058.1442800001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4">
-        <v>254.136</v>
-      </c>
-      <c r="F35" s="4">
-        <v>11.66</v>
-      </c>
-      <c r="G35" s="26">
-        <f t="shared" si="0"/>
-        <v>2963.2257599999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="E36" s="20">
         <v>64.218999999999994</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="20">
         <v>9.1</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="12">
         <f t="shared" si="0"/>
         <v>584.39289999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="2" t="s">
+      <c r="B37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="20">
         <v>119.78100000000001</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="20">
+        <v>28</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="0"/>
+        <v>3353.8680000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="20">
+        <v>248.70099999999999</v>
+      </c>
+      <c r="F38" s="20">
+        <v>13473</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="0"/>
+        <v>3350748.5729999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="20">
+        <v>299.17599999999999</v>
+      </c>
+      <c r="F39" s="20">
+        <v>4630</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="0"/>
+        <v>1385184.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="20">
+        <v>917.14599999999996</v>
+      </c>
+      <c r="F40" s="20">
+        <v>255.97</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="0"/>
+        <v>234761.86161999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1620.357</v>
+      </c>
+      <c r="F41" s="20">
+        <v>255.97</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="0"/>
+        <v>414762.78129000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="17">
+        <v>645.97900000000004</v>
+      </c>
+      <c r="F42" s="17">
         <v>28.2</v>
       </c>
-      <c r="G37" s="26">
-        <f t="shared" si="0"/>
-        <v>3377.8242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2">
-        <v>248.70099999999999</v>
-      </c>
-      <c r="F38" s="2">
-        <v>8712.2900000000009</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" si="0"/>
-        <v>2166755.2352900002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2">
-        <v>299.17599999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>4631.25</v>
-      </c>
-      <c r="G39" s="26">
-        <f t="shared" si="0"/>
-        <v>1385558.8499999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2">
-        <v>917.14599999999996</v>
-      </c>
-      <c r="F40" s="15">
-        <v>191.73</v>
-      </c>
-      <c r="G40" s="26">
-        <f t="shared" si="0"/>
-        <v>175844.40257999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1620.357</v>
-      </c>
-      <c r="F41" s="15">
-        <v>191.73</v>
-      </c>
-      <c r="G41" s="26">
-        <f t="shared" si="0"/>
-        <v>310671.04760999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="4">
-        <v>645.97900000000004</v>
-      </c>
-      <c r="F42" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="G42" s="26">
+      <c r="G42" s="12">
         <f t="shared" si="0"/>
         <v>18216.607800000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="43" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="20">
         <v>113.751</v>
       </c>
-      <c r="F43" s="2">
-        <v>3526.88</v>
-      </c>
-      <c r="G43" s="26">
+      <c r="F43" s="20">
+        <v>4475.63</v>
+      </c>
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>401186.12688000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+        <v>509107.38813000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="20">
         <v>91129.043000000005</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="20">
         <v>2</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="12">
         <f t="shared" si="0"/>
         <v>182258.08600000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+    <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="B45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="20">
         <v>8977.6970000000001</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="20">
         <v>2</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="12">
         <f t="shared" si="0"/>
         <v>17955.394</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+    <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="20">
         <v>83530.180999999997</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="25">
         <v>2</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="12">
         <f t="shared" si="0"/>
         <v>167060.36199999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+    <row r="47" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="20">
         <v>76.653000000000006</v>
       </c>
-      <c r="F47" s="2">
-        <v>11022.13</v>
-      </c>
-      <c r="G47" s="26">
+      <c r="F47" s="20">
+        <v>11110.45</v>
+      </c>
+      <c r="G47" s="12">
         <f t="shared" si="0"/>
-        <v>844879.33088999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>851649.32385000016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>46</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="25">
+        <v>216.084</v>
+      </c>
+      <c r="F48" s="25">
+        <v>832.48</v>
+      </c>
       <c r="G48">
         <f>SUM(G3:G47)</f>
-        <v>17658154.978939999</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.35">
+        <v>26190041.637010004</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>SUMPRODUCT(E3:E48,F3:F48)</f>
+        <v>26369927.245330006</v>
+      </c>
       <c r="G49">
         <f>G48/100000</f>
-        <v>176.58154978939999</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D50" s="27" t="s">
-        <v>291</v>
+        <v>261.90041637010006</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50">
+        <f>F49/10^5</f>
+        <v>263.69927245330007</v>
       </c>
       <c r="G50">
         <f>(G48-G47)/100000</f>
-        <v>168.13275648049998</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="24">
+        <v>253.38392313160006</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="10">
         <f>ROUND(G50,2)</f>
-        <v>168.13</v>
+        <v>253.38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G61">
+  <sortState ref="A3:G61">
     <sortCondition ref="A3:A61"/>
   </sortState>
   <mergeCells count="5">
@@ -3151,36 +3275,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="83" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F1" s="2">
         <v>18</v>
@@ -3189,27 +3314,27 @@
         <v>493.06900000000002</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2">
         <v>8875.2420000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2">
         <v>18</v>
@@ -3218,24 +3343,24 @@
         <v>38.654000000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2">
         <v>695.77200000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -3247,13 +3372,13 @@
         <v>3.4710000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2">
         <v>703918.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3264,10 +3389,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2">
         <v>339</v>
@@ -3276,27 +3401,27 @@
         <v>185.381</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2">
         <v>62844.159</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2">
         <v>1501</v>
@@ -3305,24 +3430,24 @@
         <v>123.002</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="2">
         <v>184626.00200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -3334,27 +3459,27 @@
         <v>54.670999999999999</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2">
         <v>123091.757</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2">
         <v>1200</v>
@@ -3363,24 +3488,24 @@
         <v>281.15699999999998</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="2">
         <v>337388.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -3392,27 +3517,27 @@
         <v>332.45100000000002</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="2">
         <v>25911593.311999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F9" s="2">
         <v>58455.82</v>
@@ -3421,13 +3546,13 @@
         <v>150.18799999999999</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="2">
         <v>8779362.6940000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -3438,7 +3563,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -3450,24 +3575,24 @@
         <v>34.886000000000003</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2">
         <v>815715.96400000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -3479,24 +3604,24 @@
         <v>119.899</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2">
         <v>7008794.3619999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -3508,24 +3633,24 @@
         <v>9.5609999999999999</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="2">
         <v>1117792.19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -3537,24 +3662,24 @@
         <v>19.265999999999998</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="2">
         <v>4952855.1150000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -3566,24 +3691,24 @@
         <v>107.75700000000001</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2">
         <v>134642.372</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -3595,24 +3720,24 @@
         <v>143.41800000000001</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2">
         <v>341334.84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -3624,27 +3749,27 @@
         <v>512.06899999999996</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2">
         <v>182808.633</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <v>26444</v>
@@ -3653,27 +3778,27 @@
         <v>442.20600000000002</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2">
         <v>11693695.464</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2">
         <v>1700</v>
@@ -3682,24 +3807,24 @@
         <v>1493.9380000000001</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I18" s="2">
         <v>2539694.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -3711,24 +3836,24 @@
         <v>126.901</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="2">
         <v>302024.38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -3740,24 +3865,24 @@
         <v>917.14599999999996</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="2">
         <v>390759.22499999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -3769,7 +3894,7 @@
         <v>1620.357</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="2">
         <v>690369.30299999996</v>
@@ -3781,1319 +3906,1319 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0309A-A47A-47E0-9AB3-E0AF760162D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="10">
+        <v>3213.6</v>
+      </c>
+      <c r="G1" s="10">
+        <v>21.898</v>
+      </c>
+      <c r="H1" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="24">
-        <v>3213.6</v>
-      </c>
-      <c r="G1" s="24">
-        <v>21.898</v>
-      </c>
-      <c r="H1" t="s">
-        <v>162</v>
       </c>
       <c r="I1">
         <v>70371.413</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1014.741</v>
+      </c>
+      <c r="H2" t="s">
         <v>163</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="24">
-        <v>4</v>
-      </c>
-      <c r="G2" s="24">
-        <v>1014.741</v>
-      </c>
-      <c r="H2" t="s">
-        <v>164</v>
       </c>
       <c r="I2">
         <v>4058.9639999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10">
+        <v>37.286999999999999</v>
+      </c>
+      <c r="H3" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="24">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24">
-        <v>37.286999999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>166</v>
       </c>
       <c r="I3">
         <v>149.148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="10">
+        <v>160</v>
+      </c>
+      <c r="G4" s="10">
+        <v>12.016</v>
+      </c>
+      <c r="H4" t="s">
         <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="24">
-        <v>160</v>
-      </c>
-      <c r="G4" s="24">
-        <v>12.016</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
       </c>
       <c r="I4">
         <v>1922.56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="10">
+        <v>160</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="24">
-        <v>160</v>
-      </c>
-      <c r="G5" s="24">
-        <v>2.2589999999999999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>170</v>
       </c>
       <c r="I5">
         <v>361.44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="10">
         <v>796.31</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="10">
         <v>113.717</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6">
         <v>90553.983999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="10">
+        <v>262.5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1008.603</v>
+      </c>
+      <c r="H7" t="s">
         <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="24">
-        <v>262.5</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1008.603</v>
-      </c>
-      <c r="H7" t="s">
-        <v>175</v>
       </c>
       <c r="I7">
         <v>264758.28700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
         <v>176</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="10">
         <v>5208.25</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="10">
         <v>194.233</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8">
         <v>1011614.022</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="10">
         <v>12100</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="10">
         <v>54.006</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9">
         <v>653472.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>182</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="10">
         <v>340.67</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="10">
         <v>750.50099999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10">
         <v>255673.17600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
         <v>185</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>186</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="10">
         <v>750.94</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="10">
         <v>551.24099999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11">
         <v>413948.91700000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" t="s">
         <v>189</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>190</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="10">
+        <v>17.43</v>
+      </c>
+      <c r="G12" s="10">
+        <v>125491.94500000001</v>
+      </c>
+      <c r="H12" t="s">
         <v>191</v>
-      </c>
-      <c r="F12" s="24">
-        <v>17.43</v>
-      </c>
-      <c r="G12" s="24">
-        <v>125491.94500000001</v>
-      </c>
-      <c r="H12" t="s">
-        <v>192</v>
       </c>
       <c r="I12">
         <v>2187324.6009999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" t="s">
         <v>194</v>
-      </c>
-      <c r="D13" t="s">
-        <v>195</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="10">
         <v>61.88</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="10">
         <v>64.757999999999996</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13">
         <v>4007.2249999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="10">
         <v>495.04</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="10">
         <v>204.84399999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14">
         <v>101405.974</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="10">
+        <v>134.68</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1029.837</v>
+      </c>
+      <c r="H15" t="s">
         <v>200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="24">
-        <v>134.68</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1029.837</v>
-      </c>
-      <c r="H15" t="s">
-        <v>201</v>
       </c>
       <c r="I15">
         <v>138698.44699999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="10">
+        <v>21.84</v>
+      </c>
+      <c r="G16" s="10">
+        <v>374.88299999999998</v>
+      </c>
+      <c r="H16" t="s">
         <v>202</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="24">
-        <v>21.84</v>
-      </c>
-      <c r="G16" s="24">
-        <v>374.88299999999998</v>
-      </c>
-      <c r="H16" t="s">
-        <v>203</v>
       </c>
       <c r="I16">
         <v>8187.4449999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42</v>
       </c>
       <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="10">
+        <v>351.4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="H17" t="s">
         <v>205</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="24">
-        <v>351.4</v>
-      </c>
-      <c r="G17" s="24">
-        <v>7.5289999999999999</v>
-      </c>
-      <c r="H17" t="s">
-        <v>206</v>
       </c>
       <c r="I17">
         <v>2645.6909999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
         <v>207</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>208</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>209</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="10">
         <v>50.61</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="10">
         <v>3042.9050000000002</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18">
         <v>154001.42199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>208</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>209</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="10">
         <v>50.61</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="10">
         <v>3302.3049999999998</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I19">
         <v>167129.65599999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
       <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" t="s">
         <v>214</v>
-      </c>
-      <c r="D20" t="s">
-        <v>215</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="10">
         <v>160.08000000000001</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="10">
         <v>620.41099999999994</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I20">
         <v>99315.392999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="10">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="10">
         <v>978.95600000000002</v>
       </c>
       <c r="H21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21">
         <v>8859.5519999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
         <v>218</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>219</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="10">
         <v>28547.15</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="10">
         <v>6.827</v>
       </c>
       <c r="H22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22">
         <v>194891.39300000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>47</v>
       </c>
       <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
         <v>221</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>222</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="10">
         <v>43.91</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="10">
         <v>7834.1220000000003</v>
       </c>
       <c r="H23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I23">
         <v>343996.29700000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
         <v>224</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>225</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="10">
         <v>1.37</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="10">
         <v>7497.5079999999998</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I24">
         <v>10271.585999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
         <v>227</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="10">
+        <v>562.84</v>
+      </c>
+      <c r="G25" s="10">
+        <v>651.726</v>
+      </c>
+      <c r="H25" t="s">
         <v>229</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="24">
-        <v>562.84</v>
-      </c>
-      <c r="G25" s="24">
-        <v>651.726</v>
-      </c>
-      <c r="H25" t="s">
-        <v>230</v>
       </c>
       <c r="I25">
         <v>366817.462</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="G26" s="10">
+        <v>657.846</v>
+      </c>
+      <c r="H26" t="s">
         <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="24">
-        <v>90.2</v>
-      </c>
-      <c r="G26" s="24">
-        <v>657.846</v>
-      </c>
-      <c r="H26" t="s">
-        <v>232</v>
       </c>
       <c r="I26">
         <v>59337.709000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="10">
+        <v>164.42</v>
+      </c>
+      <c r="G27" s="10">
+        <v>536.16300000000001</v>
+      </c>
+      <c r="H27" t="s">
         <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="24">
-        <v>164.42</v>
-      </c>
-      <c r="G27" s="24">
-        <v>536.16300000000001</v>
-      </c>
-      <c r="H27" t="s">
-        <v>234</v>
       </c>
       <c r="I27">
         <v>88155.92</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>237</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="10">
+        <v>25887.52</v>
+      </c>
+      <c r="G28" s="10">
+        <v>84.908000000000001</v>
+      </c>
+      <c r="H28" t="s">
         <v>238</v>
-      </c>
-      <c r="F28" s="24">
-        <v>25887.52</v>
-      </c>
-      <c r="G28" s="24">
-        <v>84.908000000000001</v>
-      </c>
-      <c r="H28" t="s">
-        <v>239</v>
       </c>
       <c r="I28">
         <v>2198057.548</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
         <v>240</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="10">
+        <v>34.78</v>
+      </c>
+      <c r="G29" s="10">
+        <v>70.566000000000003</v>
+      </c>
+      <c r="H29" t="s">
         <v>242</v>
-      </c>
-      <c r="E29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="24">
-        <v>34.78</v>
-      </c>
-      <c r="G29" s="24">
-        <v>70.566000000000003</v>
-      </c>
-      <c r="H29" t="s">
-        <v>243</v>
       </c>
       <c r="I29">
         <v>2454.2849999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>51</v>
       </c>
       <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" t="s">
         <v>245</v>
-      </c>
-      <c r="D30" t="s">
-        <v>246</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="10">
         <v>14.29</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="10">
         <v>492.06599999999997</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30">
         <v>7031.6229999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="10">
         <v>2512</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="10">
         <v>128.309</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I31">
         <v>322312.20799999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53</v>
       </c>
       <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
         <v>250</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>251</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="10">
         <v>274.68</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="10">
         <v>10008.221</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32">
         <v>2749058.1439999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>54</v>
       </c>
       <c r="B33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="D33" t="s">
         <v>254</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11.66</v>
+      </c>
+      <c r="G33" s="10">
+        <v>254.136</v>
+      </c>
+      <c r="H33" t="s">
         <v>255</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="24">
-        <v>11.66</v>
-      </c>
-      <c r="G33" s="24">
-        <v>254.136</v>
-      </c>
-      <c r="H33" t="s">
-        <v>256</v>
       </c>
       <c r="I33">
         <v>2963.2260000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>257</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>258</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="10">
         <v>9.1</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="10">
         <v>64.218999999999994</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34">
         <v>584.39300000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="10">
         <v>28.2</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="10">
         <v>119.78100000000001</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I35">
         <v>3377.8240000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="10">
+        <v>8713.2900000000009</v>
+      </c>
+      <c r="G36" s="10">
+        <v>248.70099999999999</v>
+      </c>
+      <c r="H36" t="s">
         <v>264</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="24">
-        <v>8713.2900000000009</v>
-      </c>
-      <c r="G36" s="24">
-        <v>248.70099999999999</v>
-      </c>
-      <c r="H36" t="s">
-        <v>265</v>
       </c>
       <c r="I36">
         <v>2167003.9360000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="10">
+        <v>4631.25</v>
+      </c>
+      <c r="G37" s="10">
+        <v>299.17599999999999</v>
+      </c>
+      <c r="H37" t="s">
         <v>266</v>
-      </c>
-      <c r="B37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>264</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="24">
-        <v>4631.25</v>
-      </c>
-      <c r="G37" s="24">
-        <v>299.17599999999999</v>
-      </c>
-      <c r="H37" t="s">
-        <v>267</v>
       </c>
       <c r="I37">
         <v>1385558.85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
         <v>268</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>269</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="10">
         <v>191.73</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="10">
         <v>917.14599999999996</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I38">
         <v>175844.40299999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
         <v>270</v>
-      </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" t="s">
-        <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="10">
         <v>191.73</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="10">
         <v>1620.357</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39">
         <v>310671.04800000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>59</v>
       </c>
       <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
         <v>272</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" t="s">
-        <v>273</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="10">
         <v>28.2</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="10">
         <v>645.97900000000004</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I40">
         <v>18216.608</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="10">
         <v>3526.88</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="10">
         <v>113.751</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I41">
         <v>401186.12699999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>61</v>
       </c>
       <c r="B42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
         <v>277</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2</v>
+      </c>
+      <c r="G42" s="10">
+        <v>91129.043000000005</v>
+      </c>
+      <c r="H42" t="s">
         <v>278</v>
-      </c>
-      <c r="E42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="24">
-        <v>2</v>
-      </c>
-      <c r="G42" s="24">
-        <v>91129.043000000005</v>
-      </c>
-      <c r="H42" t="s">
-        <v>279</v>
       </c>
       <c r="I42">
         <v>182258.08600000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>62</v>
       </c>
       <c r="B43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="10">
+        <v>2</v>
+      </c>
+      <c r="G43" s="10">
+        <v>8977.6970000000001</v>
+      </c>
+      <c r="H43" t="s">
         <v>281</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="24">
-        <v>2</v>
-      </c>
-      <c r="G43" s="24">
-        <v>8977.6970000000001</v>
-      </c>
-      <c r="H43" t="s">
-        <v>282</v>
       </c>
       <c r="I43">
         <v>17955.394</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2</v>
+      </c>
+      <c r="G44" s="10">
+        <v>83530.180999999997</v>
+      </c>
+      <c r="H44" t="s">
         <v>283</v>
-      </c>
-      <c r="E44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="24">
-        <v>2</v>
-      </c>
-      <c r="G44" s="24">
-        <v>83530.180999999997</v>
-      </c>
-      <c r="H44" t="s">
-        <v>284</v>
       </c>
       <c r="I44">
         <v>167060.36199999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>64</v>
       </c>
       <c r="B45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>285</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>286</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="10">
         <v>11022.13</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="10">
         <v>76.653000000000006</v>
       </c>
       <c r="H45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I45">
         <v>844879.33100000001</v>
